--- a/Programa laboratorio de Implementación.xlsx
+++ b/Programa laboratorio de Implementación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambrosio/Documents/GitHub/DMA_LABO_Austral_2021_rosario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF5EA8B-EF0A-6548-B25C-0998C1DB1039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0FE90-D674-5E4B-98C9-3431FE9485B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E1283632-8AD2-7748-9E57-E7C0E246BB9F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Laboratorio de Implementación</t>
   </si>
@@ -66,19 +66,22 @@
     <t>Resolución de un problema "End to end"</t>
   </si>
   <si>
-    <t>Preprocesamiento de los datos y exploración / Feature engineering</t>
-  </si>
-  <si>
-    <t>Clasificación de texto</t>
-  </si>
-  <si>
-    <t>Clasificación de imágenes</t>
-  </si>
-  <si>
-    <t>Implementación, validación y optimización de modelos</t>
-  </si>
-  <si>
-    <t>Regresión y forecasting</t>
+    <t>Preprocesamiento de los datos y exploración</t>
+  </si>
+  <si>
+    <t>Feature engineering, Implementación y validación</t>
+  </si>
+  <si>
+    <t>Optimizacion de modelos</t>
+  </si>
+  <si>
+    <t>Clasificando imágenes</t>
+  </si>
+  <si>
+    <t>Clasificando texto</t>
+  </si>
+  <si>
+    <t>Regresión y series de tiempo</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -547,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -569,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -591,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:4">

--- a/Programa laboratorio de Implementación.xlsx
+++ b/Programa laboratorio de Implementación.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambrosio/Documents/GitHub/DMA_LABO_Austral_2021_rosario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0FE90-D674-5E4B-98C9-3431FE9485B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C68560-9CBC-224B-BD92-76957038198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E1283632-8AD2-7748-9E57-E7C0E246BB9F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Laboratorio de Implementación</t>
   </si>
@@ -63,25 +63,22 @@
     <t>Introducción a la materia / Herramientas / Introducción a Python</t>
   </si>
   <si>
-    <t>Resolución de un problema "End to end"</t>
-  </si>
-  <si>
     <t>Preprocesamiento de los datos y exploración</t>
   </si>
   <si>
-    <t>Feature engineering, Implementación y validación</t>
-  </si>
-  <si>
-    <t>Optimizacion de modelos</t>
-  </si>
-  <si>
-    <t>Clasificando imágenes</t>
-  </si>
-  <si>
-    <t>Clasificando texto</t>
-  </si>
-  <si>
-    <t>Regresión y series de tiempo</t>
+    <t>Redes convolucionales</t>
+  </si>
+  <si>
+    <t>Implementación y aplicaciones</t>
+  </si>
+  <si>
+    <t>Redes Recurrentes</t>
+  </si>
+  <si>
+    <t>Feature engineering, Implementación y validación, Optimización</t>
+  </si>
+  <si>
+    <t>Armado de los datasets / Redes neuronales profundas</t>
   </si>
 </sst>
 </file>
@@ -485,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1209B8B5-5693-E14C-958B-613838F25FB3}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="157" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -539,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -550,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -561,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -572,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -583,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -594,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -605,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
